--- a/GameData/ABCharacterStatTable.xlsx
+++ b/GameData/ABCharacterStatTable.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ArenaBattle\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UE5Part2\ArenaBattle\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1A37F4-3253-4CB0-A52E-26CA7ADC6EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1125" windowWidth="31545" windowHeight="17940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" xr2:uid="{14535CBB-5647-4022-885E-3A0FC95BEC4B}"/>
   </bookViews>
   <sheets>
-    <sheet name="ABCharacterStatTable" sheetId="2" r:id="rId1"/>
+    <sheet name="Player" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +133,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,21 +444,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D538BA-27C2-42AB-99FE-D911400E397E}">
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -477,7 +478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -497,7 +498,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -517,7 +518,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -537,7 +538,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -557,7 +558,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -577,7 +578,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -597,7 +598,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -617,7 +618,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -637,7 +638,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -657,7 +658,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -680,6 +681,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>